--- a/2024/shuffle-architecute/Teste10/content/results/metrics_3_5.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_3_5.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.943848733873749</v>
+        <v>0.9604378376164329</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7324848103376476</v>
+        <v>0.773236476353283</v>
       </c>
       <c r="D2" t="n">
-        <v>0.946618110157491</v>
+        <v>0.9718333483092514</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8893810114824301</v>
+        <v>0.7550373005080552</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9399243258647291</v>
+        <v>0.952591184197677</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2356548458337784</v>
+        <v>0.166033923625946</v>
       </c>
       <c r="H2" t="n">
-        <v>1.788875222206116</v>
+        <v>1.516368746757507</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3993722796440125</v>
+        <v>0.2274961322546005</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1304586380720139</v>
+        <v>0.1963246911764145</v>
       </c>
       <c r="K2" t="n">
-        <v>0.264915406703949</v>
+        <v>0.2119104713201523</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9434146199875165</v>
+        <v>0.9601847224383094</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7322884512973244</v>
+        <v>0.7727408063185482</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9472204750474903</v>
+        <v>0.972633191318366</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8921031726102365</v>
+        <v>0.7542921600839227</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9407993078610905</v>
+        <v>0.9532470345284585</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2374767363071442</v>
+        <v>0.1670961976051331</v>
       </c>
       <c r="H3" t="n">
-        <v>1.790188312530518</v>
+        <v>1.519683361053467</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3948657512664795</v>
+        <v>0.2210359573364258</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1272482573986053</v>
+        <v>0.1969218999147415</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2610569894313812</v>
+        <v>0.2089789062738419</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9429502978649129</v>
+        <v>0.9599150608015579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7320757541805925</v>
+        <v>0.7722300064176281</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9477987878658797</v>
+        <v>0.9734281911522076</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8946330952786543</v>
+        <v>0.7533722830878901</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9416281794241782</v>
+        <v>0.9538828202373116</v>
       </c>
       <c r="G4" t="n">
-        <v>0.239425390958786</v>
+        <v>0.1682278960943222</v>
       </c>
       <c r="H4" t="n">
-        <v>1.791610598564148</v>
+        <v>1.523098945617676</v>
       </c>
       <c r="I4" t="n">
-        <v>0.390539139509201</v>
+        <v>0.2146149128675461</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1242645904421806</v>
+        <v>0.1976591199636459</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2574019432067871</v>
+        <v>0.2061370313167572</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9424548178456681</v>
+        <v>0.959628155051107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7318459246978267</v>
+        <v>0.7717037444995176</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9483514260784538</v>
+        <v>0.9742176107894323</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8969657575221088</v>
+        <v>0.7522699651227166</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9424089265183565</v>
+        <v>0.9544972072849529</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2415048032999039</v>
+        <v>0.1694319844245911</v>
       </c>
       <c r="H5" t="n">
-        <v>1.793147563934326</v>
+        <v>1.526618123054504</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3864046335220337</v>
+        <v>0.2082389295101166</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1215135604143143</v>
+        <v>0.1985425800085068</v>
       </c>
       <c r="K5" t="n">
-        <v>0.253959059715271</v>
+        <v>0.203390821814537</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9419271383259821</v>
+        <v>0.959323387755832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7315982151257533</v>
+        <v>0.771161659239369</v>
       </c>
       <c r="D6" t="n">
-        <v>0.948876706775905</v>
+        <v>0.975000730433805</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8990965095938336</v>
+        <v>0.7509786727026656</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9431394260604855</v>
+        <v>0.9550889777289353</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2437193691730499</v>
+        <v>0.170711025595665</v>
       </c>
       <c r="H6" t="n">
-        <v>1.794804096221924</v>
+        <v>1.530243039131165</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3824747800827026</v>
+        <v>0.2019138485193253</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1190006583929062</v>
+        <v>0.1995774656534195</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2507377862930298</v>
+        <v>0.2007456868886948</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9413662726345744</v>
+        <v>0.9590000779726437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7313317607289249</v>
+        <v>0.7706033360613187</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9493727799903935</v>
+        <v>0.9757768459683452</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9010204967876514</v>
+        <v>0.7494906296738557</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9438175176333843</v>
+        <v>0.9556567798652592</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2460731863975525</v>
+        <v>0.1720678955316544</v>
       </c>
       <c r="H7" t="n">
-        <v>1.79658567905426</v>
+        <v>1.533976554870605</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3787634670734406</v>
+        <v>0.1956453323364258</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1167315989732742</v>
+        <v>0.2007700800895691</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2477476000785828</v>
+        <v>0.1982076913118362</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9407711421960245</v>
+        <v>0.9586575115449425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7310457501019246</v>
+        <v>0.7700283874526923</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9498379690990914</v>
+        <v>0.976545054563482</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9027331361774208</v>
+        <v>0.7477971167328714</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9444411752120658</v>
+        <v>0.9561990177563447</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2485708445310593</v>
+        <v>0.173505574464798</v>
       </c>
       <c r="H8" t="n">
-        <v>1.798498392105103</v>
+        <v>1.537821292877197</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3752831816673279</v>
+        <v>0.1894406676292419</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1147117912769318</v>
+        <v>0.2021273374557495</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2449974715709686</v>
+        <v>0.1957839727401733</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9401407011230166</v>
+        <v>0.9582950141246852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7307392977769458</v>
+        <v>0.7694364262739405</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9502702696485867</v>
+        <v>0.9773046018808756</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9042302452162982</v>
+        <v>0.7458919201032206</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9450080817403245</v>
+        <v>0.9567144371068438</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2512166500091553</v>
+        <v>0.1750269085168839</v>
       </c>
       <c r="H9" t="n">
-        <v>1.800547480583191</v>
+        <v>1.541779756546021</v>
       </c>
       <c r="I9" t="n">
-        <v>0.372048944234848</v>
+        <v>0.1833059638738632</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1129461824893951</v>
+        <v>0.2036542296409607</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2424975633621216</v>
+        <v>0.1934801191091537</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9394739592046145</v>
+        <v>0.9579117765612537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7304115549579684</v>
+        <v>0.7688270498621118</v>
       </c>
       <c r="D10" t="n">
-        <v>0.95066792422545</v>
+        <v>0.9780545244008454</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9055078558077906</v>
+        <v>0.7437657008178635</v>
       </c>
       <c r="F10" t="n">
-        <v>0.945516266376303</v>
+        <v>0.9572013584587812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2540148496627808</v>
+        <v>0.1766352504491806</v>
       </c>
       <c r="H10" t="n">
-        <v>1.802739143371582</v>
+        <v>1.545854568481445</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3690739572048187</v>
+        <v>0.1772489994764328</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1114394292235374</v>
+        <v>0.2053583115339279</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2402566373348236</v>
+        <v>0.1913036555051804</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9387698575399523</v>
+        <v>0.9575071527364718</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7300616377082021</v>
+        <v>0.7681998657151492</v>
       </c>
       <c r="D11" t="n">
-        <v>0.951028997216335</v>
+        <v>0.9787939622849753</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9065623528470971</v>
+        <v>0.7414107790278842</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9459635673015655</v>
+        <v>0.9576583474260714</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2569698095321655</v>
+        <v>0.1783333718776703</v>
       </c>
       <c r="H11" t="n">
-        <v>1.805079102516174</v>
+        <v>1.550048589706421</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3663726150989532</v>
+        <v>0.1712767034769058</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1101958081126213</v>
+        <v>0.2072456479072571</v>
       </c>
       <c r="K11" t="n">
-        <v>0.238284170627594</v>
+        <v>0.1892609894275665</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9380272918757454</v>
+        <v>0.9570802238290644</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7296886387270757</v>
+        <v>0.7675544559152465</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9513515994407065</v>
+        <v>0.9795219694697607</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9073897519997117</v>
+        <v>0.7388188408403632</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9463478725076097</v>
+        <v>0.9580836777765591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2600861787796021</v>
+        <v>0.1801251024007797</v>
       </c>
       <c r="H12" t="n">
-        <v>1.807573318481445</v>
+        <v>1.554364442825317</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3639590740203857</v>
+        <v>0.1653967499732971</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1092200130224228</v>
+        <v>0.2093229442834854</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2365895062685013</v>
+        <v>0.1873598098754883</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9372452548355099</v>
+        <v>0.9566303022136348</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7292917066423201</v>
+        <v>0.7668904180598641</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9516337543919785</v>
+        <v>0.9802375052906391</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9079872434724889</v>
+        <v>0.7359819893933854</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9466671041836503</v>
+        <v>0.9584758232453963</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2633682489395142</v>
+        <v>0.1820133626461029</v>
       </c>
       <c r="H13" t="n">
-        <v>1.810227632522583</v>
+        <v>1.558804869651794</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3618481457233429</v>
+        <v>0.1596175134181976</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1085153594613075</v>
+        <v>0.2115965336561203</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2351818084716797</v>
+        <v>0.1856069713830948</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9364227025768611</v>
+        <v>0.956156480485237</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7288699638601651</v>
+        <v>0.7662073176751503</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9518735867696653</v>
+        <v>0.9809394483547069</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9083519369731989</v>
+        <v>0.7328914413254813</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9469193204055752</v>
+        <v>0.9588329317428871</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2668203115463257</v>
+        <v>0.1840018630027771</v>
       </c>
       <c r="H14" t="n">
-        <v>1.813047885894775</v>
+        <v>1.563372850418091</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3600538671016693</v>
+        <v>0.1539480686187744</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1080852523446083</v>
+        <v>0.2140734493732452</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2340696007013321</v>
+        <v>0.1840107589960098</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9355586809531009</v>
+        <v>0.9556579902828788</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7284225616772314</v>
+        <v>0.7655047754472375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9520693496792985</v>
+        <v>0.9816267278465918</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9084813760952343</v>
+        <v>0.7295396300150664</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9471027084171816</v>
+        <v>0.9591533693122587</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2704464197158813</v>
+        <v>0.1860939264297485</v>
       </c>
       <c r="H15" t="n">
-        <v>1.816039681434631</v>
+        <v>1.568070650100708</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3585892915725708</v>
+        <v>0.1483970582485199</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1079326048493385</v>
+        <v>0.2167597413063049</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2332608997821808</v>
+        <v>0.1825784593820572</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9346521613312265</v>
+        <v>0.9551339445480115</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7279486454242379</v>
+        <v>0.7647823373750845</v>
       </c>
       <c r="D16" t="n">
-        <v>0.952219164957243</v>
+        <v>0.9822981454177993</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9083735621810723</v>
+        <v>0.7259175659818989</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9472153631320601</v>
+        <v>0.9594352715025865</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2742508947849274</v>
+        <v>0.1882932335138321</v>
       </c>
       <c r="H16" t="n">
-        <v>1.819208741188049</v>
+        <v>1.572901606559753</v>
       </c>
       <c r="I16" t="n">
-        <v>0.357468456029892</v>
+        <v>0.1429741531610489</v>
       </c>
       <c r="J16" t="n">
-        <v>0.108059749007225</v>
+        <v>0.2196626216173172</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2327641397714615</v>
+        <v>0.181318387389183</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9337022715447786</v>
+        <v>0.9545834239812971</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7274474952065626</v>
+        <v>0.7640395659645836</v>
       </c>
       <c r="D17" t="n">
-        <v>0.952321491980258</v>
+        <v>0.9829524333618526</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9080268661096339</v>
+        <v>0.7220175828859042</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9472558147444411</v>
+        <v>0.9596767652626104</v>
       </c>
       <c r="G17" t="n">
-        <v>0.278237372636795</v>
+        <v>0.190603643655777</v>
       </c>
       <c r="H17" t="n">
-        <v>1.822559833526611</v>
+        <v>1.577868461608887</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3567028939723969</v>
+        <v>0.137689620256424</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1084686294198036</v>
+        <v>0.2227882742881775</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2325857579708099</v>
+        <v>0.1802389621734619</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9327081402955684</v>
+        <v>0.9540055833146243</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7269183479472874</v>
+        <v>0.7632759990982986</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9523749276807491</v>
+        <v>0.9835883676584269</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9074402286334203</v>
+        <v>0.7178322937512988</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9472226965879563</v>
+        <v>0.9598761040330589</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2824095487594604</v>
+        <v>0.1930287182331085</v>
       </c>
       <c r="H18" t="n">
-        <v>1.826098322868347</v>
+        <v>1.582974433898926</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3563031256198883</v>
+        <v>0.1325533092021942</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1091604754328728</v>
+        <v>0.226142555475235</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2327318042516708</v>
+        <v>0.1793479323387146</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9316690093396</v>
+        <v>0.9533994595152924</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7263605654679516</v>
+        <v>0.7624911980829957</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9523782405933469</v>
+        <v>0.9842044519093558</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9066124049997503</v>
+        <v>0.7133540652112011</v>
       </c>
       <c r="F19" t="n">
-        <v>0.947114808307459</v>
+        <v>0.9600312449125742</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2867705523967743</v>
+        <v>0.1955724954605103</v>
       </c>
       <c r="H19" t="n">
-        <v>1.829828262329102</v>
+        <v>1.588222503662109</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3562783300876617</v>
+        <v>0.1275773197412491</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1101367771625519</v>
+        <v>0.2297316193580627</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2332075536251068</v>
+        <v>0.1786544770002365</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9305841369159378</v>
+        <v>0.9527641547520551</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7257735561186337</v>
+        <v>0.7616846873891524</v>
       </c>
       <c r="D20" t="n">
-        <v>0.952330368178485</v>
+        <v>0.9847993288500919</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9055433926739408</v>
+        <v>0.7085755260864569</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9469312390590691</v>
+        <v>0.9601402912187086</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2913235425949097</v>
+        <v>0.1982387602329254</v>
       </c>
       <c r="H20" t="n">
-        <v>1.83375346660614</v>
+        <v>1.593615531921387</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3566364943981171</v>
+        <v>0.1227726265788078</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1113975122570992</v>
+        <v>0.2335613816976547</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2340170443058014</v>
+        <v>0.1781670451164246</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9294529213042376</v>
+        <v>0.9520986289978483</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7251568457026094</v>
+        <v>0.7608559147176874</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9522307831187713</v>
+        <v>0.9853713159308904</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9042327591222517</v>
+        <v>0.7034896583342751</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9466715086073898</v>
+        <v>0.9602011287756963</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2960709929466248</v>
+        <v>0.2010318040847778</v>
       </c>
       <c r="H21" t="n">
-        <v>1.83787739276886</v>
+        <v>1.599157691001892</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3573815524578094</v>
+        <v>0.1181528121232986</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1129432171583176</v>
+        <v>0.2376374155282974</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2351623773574829</v>
+        <v>0.1778951287269592</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9282748686150124</v>
+        <v>0.951401974167191</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7245100670911759</v>
+        <v>0.7600043415420659</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9520791878334155</v>
+        <v>0.9859187878040833</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9026803791208862</v>
+        <v>0.6980913130162114</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9463353302845015</v>
+        <v>0.9602117947498976</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3010150194168091</v>
+        <v>0.2039555013179779</v>
       </c>
       <c r="H22" t="n">
-        <v>1.842202425003052</v>
+        <v>1.604852199554443</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3585156798362732</v>
+        <v>0.1137309968471527</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1147740110754967</v>
+        <v>0.2419639080762863</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2366448044776917</v>
+        <v>0.1778474450111389</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9270495958858421</v>
+        <v>0.9506730954440686</v>
       </c>
       <c r="C23" t="n">
-        <v>0.723832957263854</v>
+        <v>0.7591293943910409</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9518756105182131</v>
+        <v>0.9864399264213529</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9008867058782083</v>
+        <v>0.6923726677505486</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9459227754739723</v>
+        <v>0.9601699501960136</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3061572313308716</v>
+        <v>0.2070144712924957</v>
       </c>
       <c r="H23" t="n">
-        <v>1.84673023223877</v>
+        <v>1.610702991485596</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3600387275218964</v>
+        <v>0.1095218658447266</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1168893873691559</v>
+        <v>0.2465471178293228</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2384640574455261</v>
+        <v>0.1780344694852829</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9257768564856267</v>
+        <v>0.9499109565451391</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7231253533872971</v>
+        <v>0.7582304005243424</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9516206592189155</v>
+        <v>0.9869327468696432</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8988517858132178</v>
+        <v>0.6863296586638385</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9454344112645688</v>
+        <v>0.9600734548676015</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3114986419677734</v>
+        <v>0.2102129906415939</v>
       </c>
       <c r="H24" t="n">
-        <v>1.851462125778198</v>
+        <v>1.616714477539062</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3619461059570312</v>
+        <v>0.1055414527654648</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1192892715334892</v>
+        <v>0.251390278339386</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2406176030635834</v>
+        <v>0.1784657984972</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9244564873191943</v>
+        <v>0.9491144182113886</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7223872192268352</v>
+        <v>0.7573066277386697</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9513154636034895</v>
+        <v>0.9873949989515913</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8965758628909508</v>
+        <v>0.6799569798545237</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9448711574867705</v>
+        <v>0.9599197785195492</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3170399367809296</v>
+        <v>0.2135558873414993</v>
       </c>
       <c r="H25" t="n">
-        <v>1.856398105621338</v>
+        <v>1.622891664505005</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3642294108867645</v>
+        <v>0.1018079444766045</v>
       </c>
       <c r="J25" t="n">
-        <v>0.121973380446434</v>
+        <v>0.2564976215362549</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2431013733148575</v>
+        <v>0.179152712225914</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9230884424205359</v>
+        <v>0.9482822569912324</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7216186523766659</v>
+        <v>0.7563572477925253</v>
       </c>
       <c r="D26" t="n">
-        <v>0.950961339631327</v>
+        <v>0.9878243023345571</v>
       </c>
       <c r="E26" t="n">
-        <v>0.894058806861816</v>
+        <v>0.6732497246241036</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9442341866573054</v>
+        <v>0.9597063072539905</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3227813243865967</v>
+        <v>0.2170483022928238</v>
       </c>
       <c r="H26" t="n">
-        <v>1.861537337303162</v>
+        <v>1.629240274429321</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3668787777423859</v>
+        <v>0.09834055602550507</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1249418780207634</v>
+        <v>0.2618731558322906</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2459102123975754</v>
+        <v>0.1801068931818008</v>
       </c>
     </row>
   </sheetData>
